--- a/Documents/To do list.xlsx
+++ b/Documents/To do list.xlsx
@@ -52,9 +52,6 @@
     <t xml:space="preserve">Tích hợp 2 và 3 vào website </t>
   </si>
   <si>
-    <t>Hiếu &amp; Nguyên</t>
-  </si>
-  <si>
     <t>Thêm dữ liệu để xây dựng cây quyết định chung cho nhiều ngành nghề và ghép cây</t>
   </si>
   <si>
@@ -77,16 +74,82 @@
   </si>
   <si>
     <t>Review</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hiếu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nguyên</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,9 +175,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,7 +503,7 @@
   <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,10 +534,10 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>40858</v>
       </c>
     </row>
@@ -481,10 +548,10 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>40861</v>
       </c>
     </row>
@@ -495,10 +562,10 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>40864</v>
       </c>
     </row>
@@ -509,10 +576,10 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>40866</v>
       </c>
     </row>
@@ -523,10 +590,10 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>40868</v>
       </c>
     </row>
@@ -535,12 +602,12 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
         <v>40870</v>
       </c>
     </row>
@@ -549,12 +616,12 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>40870</v>
       </c>
     </row>
@@ -563,12 +630,12 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>40871</v>
       </c>
     </row>
@@ -577,12 +644,12 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>40873</v>
       </c>
     </row>
@@ -591,12 +658,12 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>40877</v>
       </c>
     </row>
@@ -605,12 +672,12 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>40892</v>
       </c>
     </row>
@@ -619,12 +686,12 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>40887</v>
       </c>
     </row>
@@ -633,14 +700,15 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documents/To do list.xlsx
+++ b/Documents/To do list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Task</t>
   </si>
@@ -108,6 +108,12 @@
       </rPr>
       <t>Nguyên</t>
     </r>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="21" formatCode="d\-mmm"/>
     </dxf>
@@ -201,13 +213,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:D15" totalsRowShown="0">
-  <autoFilter ref="A2:D15"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F15" totalsRowShown="0">
+  <autoFilter ref="A2:F15"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="No."/>
     <tableColumn id="2" name="Task"/>
     <tableColumn id="3" name="Assignment"/>
-    <tableColumn id="4" name="Deadline" dataDxfId="0"/>
+    <tableColumn id="4" name="Deadline" dataDxfId="2"/>
+    <tableColumn id="5" name="Status" dataDxfId="1"/>
+    <tableColumn id="6" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -500,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,9 +525,11 @@
     <col min="2" max="2" width="73.140625" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -526,8 +542,14 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -540,8 +562,10 @@
       <c r="D3" s="2">
         <v>40858</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -554,8 +578,10 @@
       <c r="D4" s="2">
         <v>40861</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -568,8 +594,10 @@
       <c r="D5" s="2">
         <v>40864</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -582,8 +610,10 @@
       <c r="D6" s="2">
         <v>40866</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -596,8 +626,10 @@
       <c r="D7" s="2">
         <v>40868</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -610,8 +642,10 @@
       <c r="D8" s="2">
         <v>40870</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -624,8 +658,10 @@
       <c r="D9" s="2">
         <v>40870</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -638,8 +674,10 @@
       <c r="D10" s="2">
         <v>40871</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -652,8 +690,10 @@
       <c r="D11" s="2">
         <v>40873</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -666,8 +706,10 @@
       <c r="D12" s="2">
         <v>40877</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -680,8 +722,10 @@
       <c r="D13" s="2">
         <v>40892</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -694,8 +738,10 @@
       <c r="D14" s="2">
         <v>40887</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -703,6 +749,8 @@
         <v>19</v>
       </c>
       <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/To do list.xlsx
+++ b/Documents/To do list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Task</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +565,9 @@
       <c r="D3" s="2">
         <v>40858</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -578,7 +583,9 @@
       <c r="D4" s="2">
         <v>40861</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
